--- a/biology/Zoologie/Erythrolamprus_breviceps/Erythrolamprus_breviceps.xlsx
+++ b/biology/Zoologie/Erythrolamprus_breviceps/Erythrolamprus_breviceps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erythrolamprus breviceps  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erythrolamprus breviceps  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Guyana ;
 en Guyane ;
 au Suriname ;
@@ -549,9 +563,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de cette espèce vient du latin brevis, court, et de ceps, dérivé de caput, la tête, en référence à l'aspect de cette espèce[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de cette espèce vient du latin brevis, court, et de ceps, dérivé de caput, la tête, en référence à l'aspect de cette espèce.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1860 : Catalogue of the Colubridae in the Museum of the Academy of Natural Sciences of Philadelphia, with notes and descriptions of new species. Part 2. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 12, p. 241-266 (texte intégral).</t>
         </is>
